--- a/data/RQ2/adv_sentences/quality_check_adv_sentences/bbq_gpt4_adv_samp.xlsx
+++ b/data/RQ2/adv_sentences/quality_check_adv_sentences/bbq_gpt4_adv_samp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/data/RQ2/adv_sentences/quality_check_adv_sentences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="11_467D62F660E34D227F2D4CB12529275F797AC3E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{235ACBCE-5DF0-4C26-8D5A-11282E1EBF24}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_467D62F660E34D227F2D4CB12529275F797AC3E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0403B9C-1F86-4225-9966-5B2AA765C98B}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2746,7 +2746,7 @@
     <t>who serve on the display_panel of directors?</t>
   </si>
   <si>
-    <t>check</t>
+    <t>quality_score</t>
   </si>
 </sst>
 </file>
@@ -2821,7 +2821,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2839,6 +2839,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3130,8 +3134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/RQ2/adv_sentences/quality_check_adv_sentences/bbq_gpt4_adv_samp.xlsx
+++ b/data/RQ2/adv_sentences/quality_check_adv_sentences/bbq_gpt4_adv_samp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/461cf661edc880ea/Documentos/GitHub/Thesis/data/RQ2/adv_sentences/quality_check_adv_sentences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_467D62F660E34D227F2D4CB12529275F797AC3E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0403B9C-1F86-4225-9966-5B2AA765C98B}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="11_467D62F660E34D227F2D4CB12529275F797AC3E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B0958B8-70FA-4569-8ABF-920A8D6446A3}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2839,10 +2839,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3140,10 +3136,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="23.73046875" customWidth="1"/>
-    <col min="9" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="104.19921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="49.33203125" customWidth="1"/>
     <col min="18" max="18" width="53.06640625" customWidth="1"/>
     <col min="19" max="19" width="24.796875" customWidth="1"/>
